--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -970,32 +970,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 99.9%</t>
+          <t>仓位 96.9%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>56,656.74</t>
+          <t>56,249.19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>56,592.50</t>
+          <t>54,513.70</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+994.03</t>
+          <t>+587.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.24</t>
+          <t>63.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>64.24</t>
+          <t>63.74</t>
         </is>
       </c>
     </row>
@@ -1048,17 +1048,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>281.00</t>
+          <t>5,813.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.38/-0.910%</t>
+          <t>171.92/3.050%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1068,628 +1068,628 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.836/2.810</t>
+          <t>56.412/58.130</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>双枪科技</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2,488.00</t>
+          <t>645.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-51.67/-2.040%</t>
+          <t>1.38/0.180%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.399/24.880</t>
+          <t>6.438/6.450</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>双箭股份</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>695.00</t>
+          <t>475.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-21.47/-3.030%</t>
+          <t>-6.52/-1.400%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.167/6.950</t>
+          <t>4.817/4.750</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>博闻科技</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>547.00</t>
+          <t>787.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-18.37/-3.290%</t>
+          <t>-3.73/-0.500%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.656/5.470</t>
+          <t>7.909/7.870</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>茂化实华</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>850.00</t>
+          <t>373.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-16.57/-1.940%</t>
+          <t>-1.45/-0.440%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.334/4.250</t>
+          <t>3.747/3.730</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>出版传媒</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4,212.00</t>
+          <t>701.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-296.85/-6.590%</t>
+          <t>-6.67/-0.970%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.546/21.060</t>
+          <t>7.079/7.010</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,030.00</t>
+          <t>436.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-92.71/-8.280%</t>
+          <t>-4.50/-1.070%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.615/5.150</t>
+          <t>4.407/4.360</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>豪尔赛</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2,584.00</t>
+          <t>672.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-131.74/-4.860%</t>
+          <t>0.34/0.020%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13.580/12.920</t>
+          <t>6.719/6.720</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>*ST星农</t>
+          <t>歌力思</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>596.00</t>
+          <t>810.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-9.40/-1.590%</t>
+          <t>-8.75/-1.090%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.056/5.960</t>
+          <t>8.190/8.100</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>717.00</t>
+          <t>751.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-16.48/-2.270%</t>
+          <t>-0.70/-0.023%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.337/7.170</t>
+          <t>7.519/7.510</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>钧达股份</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4,622.00</t>
+          <t>659.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-201.11/-4.180%</t>
+          <t>-2.65/-0.430%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>48.234/46.220</t>
+          <t>6.619/6.590</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1,540.00</t>
+          <t>2,037.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.03/-0.080%</t>
+          <t>6.44/0.310%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>500/500</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.083/3.080</t>
+          <t>20.308/20.370</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>摩恩电气</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>685.00</t>
+          <t>2,542.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-37.46/-5.210%</t>
+          <t>-24.91/-0.980%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.227/6.850</t>
+          <t>25.671/25.420</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>922.00</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-57.62/-5.900%</t>
+          <t>2.47/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.799/9.220</t>
+          <t>19.747/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>汇洁股份</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>698.00</t>
+          <t>861.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-33.47/-4.600%</t>
+          <t>-3.77/-0.460%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.317/6.980</t>
+          <t>8.650/8.610</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4,399.00</t>
+          <t>2,191.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>698.37/18.880%</t>
+          <t>-5.68/-0.270%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>37.004/43.990</t>
+          <t>21.969/21.910</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>德龙汇能</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1,316.00</t>
+          <t>1,230.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-24.88/-1.870%</t>
+          <t>-24.02/-1.929%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.705/6.580</t>
+          <t>12.543/12.300</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2,480.00</t>
+          <t>529.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-7.66/-0.320%</t>
+          <t>-9.55/-1.810%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12.439/12.400</t>
+          <t>5.388/5.290</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1,141.87</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1,141.87/</t>
+          <t>-1.54/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>900/</t>
+          <t>100/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12.036/</t>
+          <t>5.187/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>曙光股份</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4,992.00</t>
+          <t>482.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>178.67/3.710%</t>
+          <t>-3.52/-0.770%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1300/1300</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.703/3.840</t>
+          <t>4.857/4.820</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1,174.00</t>
+          <t>455.00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-12.79/-1.100%</t>
+          <t>-5.51/-1.240%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.935/5.870</t>
+          <t>4.607/4.550</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>永东股份</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,502.00</t>
+          <t>698.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-101.68/-3.910%</t>
+          <t>-2.67/-0.432%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13.020/12.510</t>
+          <t>7.009/6.980</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3,150.00</t>
+          <t>741.00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>205.90/6.990%</t>
+          <t>-6.69/-0.929%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14.721/15.750</t>
+          <t>7.479/7.410</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-95.44</t>
+          <t>-8.70</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-95.44/</t>
+          <t>-8.70/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>200/</t>
+          <t>100/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11.168/</t>
+          <t>7.609/</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -970,32 +970,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 96.9%</t>
+          <t>仓位 68.5%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>56,249.19</t>
+          <t>63,243.44</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>54,513.70</t>
+          <t>43,338.30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+587.73</t>
+          <t>+737.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>63.74</t>
+          <t>19,905.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63.74</t>
+          <t>8,121.44</t>
         </is>
       </c>
     </row>
@@ -1048,503 +1048,503 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5,813.00</t>
+          <t>649.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>171.92/3.050%</t>
+          <t>5.56/0.839%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>56.412/58.130</t>
+          <t>6.436/6.490</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>645.00</t>
+          <t>473.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.38/0.180%</t>
+          <t>-8.32/-1.773%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.438/6.450</t>
+          <t>4.815/4.730</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>475.00</t>
+          <t>374.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-6.52/-1.400%</t>
+          <t>-0.25/-0.120%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.817/4.750</t>
+          <t>3.744/3.740</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>787.00</t>
+          <t>438.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.73/-0.500%</t>
+          <t>-2.30/-0.551%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.909/7.870</t>
+          <t>4.405/4.380</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>373.00</t>
+          <t>671.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.45/-0.440%</t>
+          <t>-0.46/-0.100%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.747/3.730</t>
+          <t>6.717/6.710</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>歌力思</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>701.00</t>
+          <t>813.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-6.67/-0.970%</t>
+          <t>-5.55/-0.700%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.079/7.010</t>
+          <t>8.188/8.130</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>436.00</t>
+          <t>749.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-4.50/-1.070%</t>
+          <t>-2.49/-0.349%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.407/4.360</t>
+          <t>7.517/7.490</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>672.00</t>
+          <t>658.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.34/0.020%</t>
+          <t>-3.45/-0.595%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.719/6.720</t>
+          <t>6.617/6.580</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>歌力思</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>810.00</t>
+          <t>2,048.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-8.75/-1.090%</t>
+          <t>17.63/0.865%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.190/8.100</t>
+          <t>20.305/20.480</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>751.00</t>
+          <t>2,042.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.70/-0.023%</t>
+          <t>67.64/3.412%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.519/7.510</t>
+          <t>19.745/20.420</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>659.00</t>
+          <t>854.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-2.65/-0.430%</t>
+          <t>-10.57/-1.250%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.619/6.590</t>
+          <t>8.648/8.540</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2,037.00</t>
+          <t>2,219.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6.44/0.310%</t>
+          <t>22.51/1.015%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20.308/20.370</t>
+          <t>21.967/22.190</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2,542.00</t>
+          <t>1,241.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-24.91/-0.980%</t>
+          <t>-12.84/-1.041%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25.671/25.420</t>
+          <t>12.540/12.410</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>555.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.47/</t>
+          <t>16.62/3.058%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>100/</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19.747/</t>
+          <t>5.386/5.550</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>861.00</t>
+          <t>514.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-3.77/-0.460%</t>
+          <t>-4.34/-0.880%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.650/8.610</t>
+          <t>5.185/5.140</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2,191.00</t>
+          <t>480.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-5.68/-0.270%</t>
+          <t>-5.32/-1.145%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.969/21.910</t>
+          <t>4.855/4.800</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1,230.00</t>
+          <t>454.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-24.02/-1.929%</t>
+          <t>-6.31/-1.426%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12.543/12.300</t>
+          <t>4.605/4.540</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>529.00</t>
+          <t>754.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-9.55/-1.810%</t>
+          <t>-6.50/-0.896%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.388/5.290</t>
+          <t>7.607/7.540</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-1.54/</t>
+          <t>-1.24/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1554,132 +1554,132 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.187/</t>
+          <t>3.514/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>482.00</t>
+          <t>546.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-3.52/-0.770%</t>
+          <t>-18.36/-3.290%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>200/200</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.857/4.820</t>
+          <t>2.823/2.730</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>455.00</t>
+          <t>544.00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-5.51/-1.240%</t>
+          <t>-21.37/-3.820%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.607/4.550</t>
+          <t>5.656/5.440</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>698.00</t>
+          <t>4,264.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-2.67/-0.432%</t>
+          <t>-244.88/-5.436%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>200/200</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.009/6.980</t>
+          <t>22.546/21.320</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>741.00</t>
+          <t>1,036.00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-6.69/-0.929%</t>
+          <t>-86.71/-7.740%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>200/200</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.479/7.410</t>
+          <t>5.615/5.180</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>*ST星农</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-8.70</t>
+          <t>15.59</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-8.70/</t>
+          <t>15.59/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.609/</t>
+          <t>6.056/</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,31 +473,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 77.1%</t>
+          <t>仓位 49.8%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22,613.87</t>
+          <t>28,498.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17,441.10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+1,425.27</t>
-        </is>
+          <t>14,180.00</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>-96.22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5,172.77</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>172.62</v>
+          <t>14,316.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14,316.00</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,162 +549,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>金诚信</t>
+          <t>宗申动力</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5,043.00</t>
+          <t>4,850.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>177.53/3.648%</t>
+          <t>-64.42/-1.310%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/200</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>48.655/50.430</t>
+          <t>24.572/24.250</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>云南锗业</t>
+          <t>奥飞娱乐</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4,504.00</t>
+          <t>4,715.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>157.59/3.626%</t>
+          <t>-75.41/-1.576%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>500/500</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.732/22.520</t>
+          <t>9.581/9.430</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大业股份</t>
+          <t>锐明技术</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4,236.00</t>
+          <t>4,615.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>219.62/5.468%</t>
+          <t>43.61/0.954%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>400/400</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.041/10.590</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2,800.00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>259.75/10.223%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.403/28.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>首创奥莱</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>424.90</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>283.11/199.647%</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.418/4.249</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>物美消费</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>433.20</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>327.67/310.616%</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.055/4.332</t>
+          <t>45.714/46.150</t>
         </is>
       </c>
     </row>
@@ -762,31 +681,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 49.8%</t>
+          <t>仓位 94.9%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28,498.00</t>
+          <t>60,681.12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14,180.00</t>
+          <t>57,582.90</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-96.22</v>
+        <v>39.54</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14,316.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14,316.00</t>
-        </is>
+          <t>3,098.22</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,17 +755,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>宗申动力</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4,850.00</t>
+          <t>548.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-64.42/-1.310%</t>
+          <t>-16.36/-2.940%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -858,51 +775,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.572/24.250</t>
+          <t>2.823/2.740</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>奥飞娱乐</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4,715.00</t>
+          <t>645.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-75.41/-1.576%</t>
+          <t>1.58/0.210%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>500/500</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.581/9.430</t>
+          <t>6.436/6.450</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4,615.00</t>
+          <t>644.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>43.61/0.954%</t>
+          <t>-9.43/-1.480%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -912,7 +829,547 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>45.714/46.150</t>
+          <t>6.537/6.440</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,215.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-16.81/-1.382%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12.320/12.150</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>471.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-10.32/-2.180%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.815/4.710</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2,308.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-46.55/-1.990%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>400/400</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.887/5.770</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>372.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-2.25/-0.650%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.744/3.720</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>851.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7.43/0.860%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.438/8.510</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>嘉华生物科技股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1,383.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-5.93/-0.440%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13.891/13.830</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>437.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-3.30/-0.790%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.405/4.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-13.93/-1.530%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11.120/10.950</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>670.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-1.46/-0.250%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.717/6.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>614.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8.59/1.390%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6.056/6.140</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>796.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-22.54/-2.777%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.188/7.960</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>741.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-10.49/-1.424%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.517/7.410</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>540.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-25.37/-4.520%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.656/5.400</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>395.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3.74/0.900%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.915/3.950</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-21.30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-21.30/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100/</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.595/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>658.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-3.45/-0.550%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.617/6.580</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2,566.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>79.29/3.180%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.869/25.660</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2,019.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-11.35/-0.570%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.305/20.190</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2,029.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>54.65/2.761%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19.745/20.290</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-3.51</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-3.51/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>300/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>12.472/</t>
         </is>
       </c>
     </row>
@@ -970,32 +1427,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 68.5%</t>
+          <t>仓位 89.3%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>63,243.44</t>
+          <t>8,258.41</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>43,338.30</t>
+          <t>7,374.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+737.26</t>
+          <t>+477.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19,905.14</t>
+          <t>879.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8,121.44</t>
+          <t>879.41</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,71 +1505,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>首钢股份</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>649.00</t>
+          <t>826.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.56/0.839%</t>
+          <t>-5.01/-0.602%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.436/6.490</t>
+          <t>4.155/4.130</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>楚江新材</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>473.00</t>
+          <t>1,900.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-8.32/-1.773%</t>
+          <t>-59.02/-3.012%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.815/4.730</t>
+          <t>9.795/9.500</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>首创奥莱</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>374.00</t>
+          <t>417.90</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.25/-0.120%</t>
+          <t>276.11/194.711%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1122,24 +1579,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.744/3.740</t>
+          <t>1.418/4.179</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>物美消费</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>438.00</t>
+          <t>432.10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.30/-0.551%</t>
+          <t>326.57/309.573%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1149,547 +1606,115 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.405/4.380</t>
+          <t>1.055/4.321</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>驰宏锌锗</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>671.00</t>
+          <t>1,224.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.46/-0.100%</t>
+          <t>-11.01/-0.891%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.717/6.710</t>
+          <t>6.175/6.120</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>歌力思</t>
+          <t>大西洋</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>813.00</t>
+          <t>530.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-5.55/-0.700%</t>
+          <t>-9.01/-1.669%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.188/8.130</t>
+          <t>5.390/5.300</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>中毅达</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>749.00</t>
+          <t>1,281.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.49/-0.349%</t>
+          <t>-31.01/-2.363%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.517/7.490</t>
+          <t>13.120/12.810</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>江河集团</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>658.00</t>
+          <t>764.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-3.45/-0.595%</t>
+          <t>-9.01/-1.164%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.617/6.580</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2,048.00</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17.63/0.865%</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.305/20.480</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2,042.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>67.64/3.412%</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19.745/20.420</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>854.00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-10.57/-1.250%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.648/8.540</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2,219.00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22.51/1.015%</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.967/22.190</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1,241.00</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-12.84/-1.041%</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>12.540/12.410</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>555.00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>16.62/3.058%</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.386/5.550</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>514.00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-4.34/-0.880%</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.185/5.140</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>480.00</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-5.32/-1.145%</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.855/4.800</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>454.00</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-6.31/-1.426%</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.605/4.540</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>754.00</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-6.50/-0.896%</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.607/7.540</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>-1.24</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-1.24/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>100/</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.514/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>546.00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-18.36/-3.290%</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>200/200</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.823/2.730</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>544.00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-21.37/-3.820%</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.656/5.440</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>4,264.00</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-244.88/-5.436%</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>200/200</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>22.546/21.320</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1,036.00</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>-86.71/-7.740%</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>200/200</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.615/5.180</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>*ST星农</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>15.59</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>15.59/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>100/</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>6.056/</t>
+          <t>7.730/7.640</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -681,29 +681,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 94.9%</t>
+          <t>仓位 99.6%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>60,681.12</t>
+          <t>60,131.72</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>57,582.90</t>
+          <t>59,864.50</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39.54</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3,098.22</t>
-        </is>
+        <v>-458.92</v>
+      </c>
+      <c r="E2" t="n">
+        <v>267.22</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>267.22</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,44 +753,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>548.00</t>
+          <t>11,758.50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-16.36/-2.940%</t>
+          <t>925.87/8.550%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>900/900</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.823/2.740</t>
+          <t>12.036/13.065</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>645.00</t>
+          <t>2,216.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.58/0.210%</t>
+          <t>19.51/0.880%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -802,51 +800,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.436/6.450</t>
+          <t>21.967/22.160</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>644.00</t>
+          <t>1,458.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-9.43/-1.480%</t>
+          <t>7.03/0.470%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/200</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.537/6.440</t>
+          <t>7.256/7.290</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,215.00</t>
+          <t>678.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-16.81/-1.382%</t>
+          <t>6.54/0.940%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -856,24 +854,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12.320/12.150</t>
+          <t>6.717/6.780</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>471.00</t>
+          <t>534.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-10.32/-2.180%</t>
+          <t>-4.37/-0.850%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -883,51 +881,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.815/4.710</t>
+          <t>5.386/5.340</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2,308.00</t>
+          <t>566.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-46.55/-1.990%</t>
+          <t>-6.58/-1.190%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>400/400</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.887/5.770</t>
+          <t>5.728/5.660</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>372.00</t>
+          <t>344.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.25/-0.650%</t>
+          <t>-7.23/-2.120%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -937,24 +935,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.744/3.720</t>
+          <t>3.514/3.440</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>851.00</t>
+          <t>581.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7.43/0.860%</t>
+          <t>-8.39/-1.460%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -964,51 +962,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.438/8.510</t>
+          <t>5.896/5.810</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>嘉华生物科技股份</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1,383.00</t>
+          <t>1,470.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-5.93/-0.440%</t>
+          <t>-11.19/-0.770%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13.891/13.830</t>
+          <t>14.814/14.700</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>437.00</t>
+          <t>449.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-3.30/-0.790%</t>
+          <t>-11.30/-2.500%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1018,51 +1016,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.405/4.370</t>
+          <t>4.605/4.490</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>金海高科</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>507.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-13.93/-1.530%</t>
+          <t>-11.33/-2.230%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11.120/10.950</t>
+          <t>5.185/5.070</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>670.00</t>
+          <t>642.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.46/-0.250%</t>
+          <t>-11.43/-1.780%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1072,51 +1070,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.717/6.700</t>
+          <t>6.537/6.420</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>*ST星农</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>614.00</t>
+          <t>841.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8.59/1.390%</t>
+          <t>-11.76/-1.400%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.056/6.140</t>
+          <t>8.530/8.410</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>歌力思</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>796.00</t>
+          <t>428.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-22.54/-2.777%</t>
+          <t>-12.29/-2.840%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1126,24 +1124,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.188/7.960</t>
+          <t>4.405/4.280</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>741.00</t>
+          <t>649.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-10.49/-1.424%</t>
+          <t>-12.44/-1.910%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1153,24 +1151,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.517/7.410</t>
+          <t>6.617/6.490</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>540.00</t>
+          <t>466.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-25.37/-4.520%</t>
+          <t>-15.31/-3.220%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1180,24 +1178,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.656/5.400</t>
+          <t>4.815/4.660</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>395.00</t>
+          <t>734.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.74/0.900%</t>
+          <t>-17.49/-2.350%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,105 +1205,105 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.915/3.950</t>
+          <t>7.517/7.340</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>茂化实华</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-21.30</t>
+          <t>719.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-21.30/</t>
+          <t>-18.68/-2.560%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>100/</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.595/</t>
+          <t>7.379/7.190</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>658.00</t>
+          <t>-20.65</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-3.45/-0.550%</t>
+          <t>-20.65/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.617/6.580</t>
+          <t>6.739/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>双枪科技</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2,566.00</t>
+          <t>637.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>79.29/3.180%</t>
+          <t>-21.63/-3.320%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24.869/25.660</t>
+          <t>6.588/6.370</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2,019.00</t>
+          <t>1,230.00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-11.35/-0.570%</t>
+          <t>-23.83/-1.920%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1315,61 +1313,88 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20.305/20.190</t>
+          <t>12.540/12.300</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,029.00</t>
+          <t>724.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>54.65/2.761%</t>
+          <t>-25.68/-3.450%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19.745/20.290</t>
+          <t>7.499/7.240</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>1,203.00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-3.51/</t>
+          <t>-28.80/-2.360%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>300/</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12.472/</t>
+          <t>12.320/12.030</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-29.32</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-29.32/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>200/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8.568/</t>
         </is>
       </c>
     </row>
@@ -1427,32 +1452,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 89.3%</t>
+          <t>仓位 24.9%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8,258.41</t>
+          <t>8,194.43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7,374.00</t>
+          <t>2,043.40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+477.61</t>
+          <t>+413.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>879.41</t>
+          <t>145.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>879.41</t>
+          <t>145.97</t>
         </is>
       </c>
     </row>
@@ -1505,162 +1530,162 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>首钢股份</t>
+          <t>物美消费</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>826.00</t>
+          <t>433.50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-5.01/-0.602%</t>
+          <t>327.97/310.900%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>200/0</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.155/4.130</t>
+          <t>1.055/4.335</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>楚江新材</t>
+          <t>XD首创奥</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,900.00</t>
+          <t>407.90</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-59.02/-3.012%</t>
+          <t>266.11/187.659%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>200/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.795/9.500</t>
+          <t>1.418/4.079</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>首创奥莱</t>
+          <t>驰宏锌锗</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>417.90</t>
+          <t>1,202.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>276.11/194.711%</t>
+          <t>-28.12/-2.292%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/200</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.418/4.179</t>
+          <t>6.151/6.010</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>物美消费</t>
+          <t>大西洋</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>432.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>326.57/309.573%</t>
+          <t>-11.38/-2.113%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.055/4.321</t>
+          <t>5.394/5.170</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>驰宏锌锗</t>
+          <t>首钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,224.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-11.01/-0.891%</t>
+          <t>-13.53/-1.635%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>200/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.175/6.120</t>
+          <t>4.158/4.060</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>大西洋</t>
+          <t>江河集团</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>530.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-9.01/-1.669%</t>
+          <t>-15.50/-2.004%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.390/5.300</t>
+          <t>7.735/7.540</t>
         </is>
       </c>
     </row>
@@ -1672,49 +1697,49 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,281.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-31.01/-2.363%</t>
+          <t>-51.76/-3.946%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13.120/12.810</t>
+          <t>13.128/12.460</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>江河集团</t>
+          <t>楚江新材</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>764.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-9.01/-1.164%</t>
+          <t>-60.16/-3.071%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.730/7.640</t>
+          <t>9.801/9.310</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -681,27 +681,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 99.6%</t>
+          <t>仓位 24.9%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>60,131.72</t>
+          <t>8,194.43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>59,864.50</t>
+          <t>2,043.40</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-458.92</v>
+        <v>413.63</v>
       </c>
       <c r="E2" t="n">
-        <v>267.22</v>
+        <v>145.97</v>
       </c>
       <c r="F2" t="n">
-        <v>267.22</v>
+        <v>145.97</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,44 +753,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>物美消费</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11,758.50</t>
+          <t>433.50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>925.87/8.550%</t>
+          <t>327.97/310.900%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>900/900</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12.036/13.065</t>
+          <t>1.055/4.335</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>XD首创奥</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2,216.00</t>
+          <t>407.90</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19.51/0.880%</t>
+          <t>266.11/187.659%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -800,24 +800,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.967/22.160</t>
+          <t>1.418/4.079</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>驰宏锌锗</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,458.00</t>
+          <t>1,202.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.03/0.470%</t>
+          <t>-28.12/-2.292%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -827,574 +827,142 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.256/7.290</t>
+          <t>6.151/6.010</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>大西洋</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>678.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.54/0.940%</t>
+          <t>-11.38/-2.113%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.717/6.780</t>
+          <t>5.394/5.170</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>首钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>534.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-4.37/-0.850%</t>
+          <t>-13.53/-1.635%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.386/5.340</t>
+          <t>4.158/4.060</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>重庆燃气</t>
+          <t>江河集团</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>566.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-6.58/-1.190%</t>
+          <t>-15.50/-2.004%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.728/5.660</t>
+          <t>7.735/7.540</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>中毅达</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>344.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-7.23/-2.120%</t>
+          <t>-51.76/-3.946%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.514/3.440</t>
+          <t>13.128/12.460</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>楚江新材</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>581.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-8.39/-1.460%</t>
+          <t>-60.16/-3.071%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.896/5.810</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1,470.00</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-11.19/-0.770%</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>100/0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14.814/14.700</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>449.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-11.30/-2.500%</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.605/4.490</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>507.00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-11.33/-2.230%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.185/5.070</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>642.00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-11.43/-1.780%</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.537/6.420</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>841.00</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-11.76/-1.400%</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>100/0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.530/8.410</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>428.00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-12.29/-2.840%</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.405/4.280</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>649.00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-12.44/-1.910%</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.617/6.490</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>466.00</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-15.31/-3.220%</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.815/4.660</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>734.00</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-17.49/-2.350%</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.517/7.340</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>719.00</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-18.68/-2.560%</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>100/0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.379/7.190</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>合富中国</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>-20.65</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-20.65/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>100/</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.739/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>637.00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-21.63/-3.320%</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>100/0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.588/6.370</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1,230.00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-23.83/-1.920%</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>12.540/12.300</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>金花股份</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>724.00</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-25.68/-3.450%</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>100/0</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>7.499/7.240</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1,203.00</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>-28.80/-2.360%</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>12.320/12.030</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>-29.32</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-29.32/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>200/</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>8.568/</t>
+          <t>9.801/9.310</t>
         </is>
       </c>
     </row>
@@ -1452,32 +1020,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 24.9%</t>
+          <t>仓位 96.3%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8,194.43</t>
+          <t>60,248.55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2,043.40</t>
+          <t>57,989.70</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+413.63</t>
+          <t>-521.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>145.97</t>
+          <t>2,258.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>145.97</t>
+          <t>271.42</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,44 +1098,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>物美消费</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>433.50</t>
+          <t>11,810.70</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>327.97/310.900%</t>
+          <t>978.07/9.033%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>900/900</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.055/4.335</t>
+          <t>12.036/13.123</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XD首创奥</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>407.90</t>
+          <t>669.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>266.11/187.659%</t>
+          <t>-2.45/-0.383%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1577,169 +1145,601 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.418/4.079</t>
+          <t>6.717/6.690</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>驰宏锌锗</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,202.00</t>
+          <t>584.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-28.12/-2.292%</t>
+          <t>-5.39/-0.970%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.151/6.010</t>
+          <t>5.896/5.840</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>大西洋</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>345.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-11.38/-2.113%</t>
+          <t>-6.23/-1.827%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.394/5.170</t>
+          <t>3.514/3.450</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>首钢股份</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>565.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-13.53/-1.635%</t>
+          <t>-7.38/-1.330%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.158/4.060</t>
+          <t>5.726/5.650</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>江河集团</t>
+          <t>万里股份</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1,080.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-15.50/-2.004%</t>
+          <t>-7.72/-0.720%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.735/7.540</t>
+          <t>10.879/10.800</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>中毅达</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>653.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-51.76/-3.946%</t>
+          <t>-8.45/-1.299%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13.128/12.460</t>
+          <t>6.617/6.530</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>楚江新材</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>451.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-60.16/-3.071%</t>
+          <t>-9.31/-2.070%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.801/9.310</t>
+          <t>4.605/4.510</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>742.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-9.49/-1.288%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.517/7.420</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>430.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-10.30/-2.380%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.405/4.300</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>643.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-10.43/-1.624%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.537/6.430</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,470.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-11.00/-0.759%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14.812/14.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-12.33/-2.420%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.185/5.060</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>644.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-14.43/-2.226%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.587/6.440</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>837.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-15.56/-1.849%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.528/8.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>465.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-16.31/-3.430%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.815/4.650</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>720.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-17.48/-2.393%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7.377/7.200</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>655.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-18.45/-2.770%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.737/6.550</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-20.48</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-20.48/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.497/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2,175.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-21.46/-0.986%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.967/21.750</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1,208.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-23.81/-1.957%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>12.320/12.080</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1,227.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-26.82/-2.160%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>12.540/12.270</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2,002.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-28.34/-1.410%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.305/20.020</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-29.54</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-29.54/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>300/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.809/</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,27 +473,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 99.2%</t>
+          <t>仓位 66.4%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>60,778.26</t>
+          <t>46,248.16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>60,280.40</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>67.13</v>
-      </c>
-      <c r="E2" t="n">
-        <v>497.86</v>
+          <t>30,700.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-1,460.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15,547.66</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>497.86</v>
+        <v>757.6799999999999</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,621 +549,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11,786.40</t>
+          <t>3,186.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>953.77/8.803%</t>
+          <t>15.70/0.495%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>900/900</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12.036/13.096</t>
+          <t>31.703/31.860</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2,240.00</t>
+          <t>602.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43.50/1.976%</t>
+          <t>6.90/1.159%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.967/22.400</t>
+          <t>5.951/6.020</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>钧达股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2,043.00</t>
+          <t>4,758.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.64/0.612%</t>
+          <t>-10.41/-0.218%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.305/20.430</t>
+          <t>47.684/47.580</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>歌力思</t>
+          <t>锦江在线</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,634.00</t>
+          <t>1,664.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.90/0.311%</t>
+          <t>-22.16/-1.317%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.142/8.170</t>
+          <t>16.862/16.640</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>飞龙股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>489.00</t>
+          <t>2,450.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.67/0.947%</t>
+          <t>-38.21/-1.535%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>100/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.845/4.890</t>
+          <t>24.882/24.500</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>万里股份</t>
+          <t>爱婴室</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,092.00</t>
+          <t>3,798.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.27/0.382%</t>
+          <t>-152.38/-3.858%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/200</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.879/10.920</t>
+          <t>19.752/18.990</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>593.00</t>
+          <t>10,287.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.60/0.587%</t>
+          <t>-189.99/-1.813%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>900/900</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.896/5.930</t>
+          <t>11.641/11.430</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>梅轮电梯</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>823.00</t>
+          <t>3,955.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.45/0.405%</t>
+          <t>-720.40/-15.410%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>500/500</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.197/8.230</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>856.00</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3.43/0.389%</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.528/8.560</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1,256.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2.15/0.000%</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>12.540/12.560</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>459.00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-1.31/-0.209%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.605/4.590</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>苏能股份</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>492.00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-1.33/-0.443%</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.935/4.920</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>652.00</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-1.45/-0.132%</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6.537/6.520</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>736.00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-1.49/-0.184%</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.377/7.360</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2,259.00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-0.50/-0.020%</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>300/300</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.532/7.530</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>重庆燃气</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>569.00</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-3.38/-0.630%</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.726/5.690</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>658.00</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-3.45/-0.595%</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.617/6.580</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>347.00</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-4.23/-1.260%</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.514/3.470</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>514.00</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-4.34/-0.884%</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.185/5.140</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>435.00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-5.30/-1.386%</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.405/4.350</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3,735.00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-6.52/-0.169%</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>300/300</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>12.472/12.450</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>650.00</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-8.45/-1.348%</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>6.587/6.500</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>743.00</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>-8.49/-1.164%</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>7.517/7.430</t>
+          <t>9.351/7.910</t>
         </is>
       </c>
     </row>
@@ -1216,27 +816,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 5.1%</t>
+          <t>仓位 99.8%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8,198.32</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>415</v>
-      </c>
-      <c r="D2" t="n">
-        <v>273.21</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7,783.32</t>
-        </is>
+          <t>61,957.29</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>61,822.20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+1,240.03</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>135.09</v>
       </c>
       <c r="F2" t="n">
-        <v>782.79</v>
+        <v>135.09</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,25 +890,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>首创奥莱</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>415</v>
+          <t>可转债ETF</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12,058.20</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>273.21/192.666%</t>
+          <t>1,225.57/11.310%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>900/900</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12.036/13.398</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3,837.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>95.43/2.550%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>300/300</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12.472/12.790</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2,278.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>81.48/3.700%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>100/100</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.418/4.150</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.967/22.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,734.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>49.84/2.950%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.843/17.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2,080.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>49.61/2.440%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.305/20.800</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>845.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>25.44/3.080%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.197/8.450</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,278.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24.14/1.910%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12.540/12.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2,283.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23.49/1.030%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>300/300</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7.532/7.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1,059.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21.29/2.030%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10.379/10.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>498.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13.67/2.780%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.845/4.980</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>750.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12.50/1.670%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.377/7.500</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,243.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11.17/0.890%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.320/12.430</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1,491.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9.99/0.660%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14.812/14.910</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>546.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9.63/1.760%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.366/5.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>663.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9.55/1.430%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.537/6.630</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>462.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7.69/1.650%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.545/4.620</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>665.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6.55/0.960%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.587/6.650</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>446.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5.70/1.250%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.405/4.460</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5.68/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.755/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>594.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.60/0.750%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.896/5.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1,978.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3.67/0.180%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19.745/19.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1,716.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2.85/0.150%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>200/200</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8.567/8.580</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1,148.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.03/0.070%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>200/100</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5.736/5.740</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-0.35/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>600/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5.841/</t>
         </is>
       </c>
     </row>
@@ -1364,32 +1589,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>仓位 4.8%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,163.14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>388.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>+237.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>850.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>367.62</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>当日盈亏/盈亏率</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>持仓/可用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>成本/现价</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>国晟科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>388.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.90/1.279%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.831/3.880</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,31 +473,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 66.4%</t>
+          <t>仓位 84.4%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46,248.16</t>
+          <t>8,286.47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30,700.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-1,460.04</t>
-        </is>
+          <t>6,991.00</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>98.23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15,547.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>757.6799999999999</v>
+          <t>1,289.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1,289.47</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,216 +549,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>盛达资源</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3,186.00</t>
+          <t>1,967.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15.70/0.495%</t>
+          <t>71.82/3.788%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31.703/31.860</t>
+          <t>18.952/19.670</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>武进不锈</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>602.00</t>
+          <t>620.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.90/1.159%</t>
+          <t>47.89/8.373%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.951/6.020</t>
+          <t>5.721/6.200</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>钧达股份</t>
+          <t>鸿路钢构</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4,758.00</t>
+          <t>1,892.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-10.41/-0.218%</t>
+          <t>23.82/1.273%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>47.684/47.580</t>
+          <t>18.682/18.920</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>锦江在线</t>
+          <t>常宝股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,664.00</t>
+          <t>568.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-22.16/-1.317%</t>
+          <t>3.89/0.691%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16.862/16.640</t>
+          <t>5.641/5.680</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>中钨高新</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2,450.00</t>
+          <t>1,948.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-38.21/-1.535%</t>
+          <t>-45.19/-2.268%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100/0</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.882/24.500</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>爱婴室</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3,798.00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-152.38/-3.858%</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>200/200</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19.752/18.990</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10,287.00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-189.99/-1.813%</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>900/900</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>11.641/11.430</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>御银股份</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3,955.00</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-720.40/-15.410%</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>500/500</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.351/7.910</t>
+          <t>19.932/19.480</t>
         </is>
       </c>
     </row>
@@ -816,29 +735,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 99.8%</t>
+          <t>仓位 74.7%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>61,957.29</t>
+          <t>45,522.17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>61,822.20</t>
+          <t>33,997.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1,240.03</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>135.09</v>
-      </c>
-      <c r="F2" t="n">
-        <v>135.09</v>
+          <t>-1,055.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11,525.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11,525.17</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -852,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,17 +813,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12,058.20</t>
+          <t>10,476.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,225.57/11.310%</t>
+          <t>-0.99/-0.010%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -910,78 +833,78 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12.036/13.398</t>
+          <t>11.641/11.640</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3,837.00</t>
+          <t>3,900.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>95.43/2.550%</t>
+          <t>-775.40/-16.587%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>300/300</t>
+          <t>500/500</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12.472/12.790</t>
+          <t>9.351/7.800</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>爱婴室</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2,278.00</t>
+          <t>3,814.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>81.48/3.700%</t>
+          <t>-136.38/-3.453%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/200</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.967/22.780</t>
+          <t>19.752/19.070</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>名雕股份</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,734.00</t>
+          <t>628.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>49.84/2.950%</t>
+          <t>32.90/5.528%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -991,24 +914,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16.843/17.340</t>
+          <t>5.951/6.280</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>飞龙股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2,080.00</t>
+          <t>2,477.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>49.61/2.440%</t>
+          <t>-11.21/-0.450%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1018,24 +941,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.305/20.800</t>
+          <t>24.882/24.770</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>梅轮电梯</t>
+          <t>钧达股份</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>845.00</t>
+          <t>4,803.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25.44/3.080%</t>
+          <t>34.59/0.726%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1045,24 +968,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.197/8.450</t>
+          <t>47.684/48.030</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>锦江在线</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,278.00</t>
+          <t>1,646.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24.14/1.910%</t>
+          <t>-40.16/-2.384%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1072,51 +995,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12.540/12.780</t>
+          <t>16.862/16.460</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>数据港</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2,283.00</t>
+          <t>3,156.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23.49/1.030%</t>
+          <t>-85.31/-2.632%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>300/300</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.532/7.610</t>
+          <t>32.413/31.560</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>春雪食品</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1,059.00</t>
+          <t>3,101.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21.29/2.030%</t>
+          <t>-69.30/-2.186%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1126,412 +1049,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.379/10.590</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>498.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>13.67/2.780%</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.845/4.980</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>750.00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>12.50/1.670%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.377/7.500</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1,243.00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>11.17/0.890%</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.320/12.430</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1,491.00</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>9.99/0.660%</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>14.812/14.910</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>546.00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9.63/1.760%</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.366/5.460</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>663.00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9.55/1.430%</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.537/6.630</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>湖北能源</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>462.00</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>7.69/1.650%</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.545/4.620</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>665.00</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6.55/0.960%</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.587/6.650</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>446.00</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5.70/1.250%</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.405/4.460</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5.68/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>100/</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.755/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>594.00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4.60/0.750%</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.896/5.940</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1,978.00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>3.67/0.180%</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>19.745/19.780</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1,716.00</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2.85/0.150%</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>200/200</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>8.567/8.580</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>重庆燃气</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1,148.00</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1.03/0.070%</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>200/100</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.736/5.740</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-0.35/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>600/</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5.841/</t>
+          <t>31.703/31.010</t>
         </is>
       </c>
     </row>
@@ -1589,32 +1107,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 4.8%</t>
+          <t>仓位 81.8%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8,163.14</t>
+          <t>62,432.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>388.00</t>
+          <t>51,089.20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+237.97</t>
+          <t>+1,792.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>850.06</t>
+          <t>11,342.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>367.62</t>
+          <t>1,981.04</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1667,27 +1185,1026 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>国晟科技</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>388.00</t>
+          <t>11,932.20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.90/1.279%</t>
+          <t>1,099.57/10.150%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>900/900</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12.036/13.258</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5,380.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-60.81/-1.118%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>500/400</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10.882/10.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>568.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21.49/3.900%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>200/100</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.733/2.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,152.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.43/0.370%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>200/100</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.739/5.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1,500.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-5.20/-0.354%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>200/100</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.527/7.500</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1,006.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18.13/1.820%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>200/100</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.940/5.030</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,062.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16.09/1.520%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>200/100</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.231/5.310</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1,220.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19.99/1.650%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>200/100</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.001/6.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.67/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>200/</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.628/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1,488.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.80/0.181%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>200/100</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.427/7.440</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>143.42</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>143.42/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>200/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17.244/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>710.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3.89/0.494%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>200/100</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3.532/3.550</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>671.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12.54/1.880%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6.587/6.710</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>671.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17.54/2.650%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.537/6.710</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1,252.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.16/1.620%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12.320/12.520</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>504.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>28.67/5.990%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.755/5.040</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>38.43/6.960%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5.497/5.880</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>496.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-0.53/-0.150%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>100/0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.831/3.880</t>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.967/4.960</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1,480.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-1.00/-0.075%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14.812/14.800</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>447.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6.70/1.480%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4.405/4.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>562.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34.63/6.530%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5.275/5.620</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5.34/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.719/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1,495.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-14.21/-0.953%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100/0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15.094/14.950</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>62.61</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>62.61/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.305/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1,313.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>159.20/13.790%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>11.539/13.130</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>862.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9.66/1.110%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>8.525/8.620</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2,142.00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-204.09/-8.715%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.464/21.420</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2,299.00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>102.46/4.655%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.967/22.990</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1,278.00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>26.87/2.128%</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100/0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12.513/12.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>528.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3.46/0.620%</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100/0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5.247/5.280</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1,204.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-15.00/-1.250%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>100/0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12.192/12.040</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>-16.10</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-16.10/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6.735/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36.23/4.640%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>8.190/8.570</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21.09/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10.370/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>9.43/1.490%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5.360/5.430</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5.49/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4.540/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>146.06/2.760%</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>9.790/9.990</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>41.27/1.510%</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>7.527/7.660</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,29 +473,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 99.3%</t>
+          <t>仓位 92.9%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>62,941.11</t>
+          <t>62,967.64</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>62,476.50</t>
+          <t>58,499.30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1,820.02</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>464.61</v>
+          <t>+1,841.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4,468.34</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>447.16</v>
+        <v>468.01</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,77 +569,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>金房能源</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12028.5</v>
+        <v>1593</v>
       </c>
       <c r="C2" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9425</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>11.04</v>
+        <v>5.55</v>
       </c>
       <c r="G2" t="n">
-        <v>12.036</v>
+        <v>15.092</v>
       </c>
       <c r="H2" t="n">
-        <v>13.365</v>
+        <v>15.93</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>未知代码(可转债ETF)</t>
+          <t>001210</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>594</v>
+        <v>12048.3</v>
       </c>
       <c r="C3" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="D3" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E3" t="n">
-        <v>47.87</v>
+        <v>18.76823529411765</v>
       </c>
       <c r="F3" t="n">
-        <v>8.73</v>
+        <v>11.223</v>
       </c>
       <c r="G3" t="n">
-        <v>2.732</v>
+        <v>12.036</v>
       </c>
       <c r="H3" t="n">
-        <v>2.97</v>
+        <v>13.387</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>600159</t>
+          <t>未知代码(可转债ETF)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>名雕股份</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>906</v>
+        <v>3578</v>
       </c>
       <c r="C4" t="n">
         <v>200</v>
@@ -646,31 +648,31 @@
         <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>16.39</v>
+        <v>129.62</v>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>3.76</v>
       </c>
       <c r="G4" t="n">
-        <v>4.449</v>
+        <v>17.242</v>
       </c>
       <c r="H4" t="n">
-        <v>4.53</v>
+        <v>17.89</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>603183</t>
+          <t>002830</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512</v>
+        <v>600</v>
       </c>
       <c r="C5" t="n">
         <v>200</v>
@@ -679,163 +681,163 @@
         <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>6.99</v>
+        <v>53.87</v>
       </c>
       <c r="F5" t="n">
-        <v>0.45</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>7.526</v>
+        <v>2.732</v>
       </c>
       <c r="H5" t="n">
-        <v>7.56</v>
+        <v>3</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>605001</t>
+          <t>600159</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1212</v>
+        <v>5904</v>
       </c>
       <c r="C6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>12.19</v>
+        <v>97.06</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>1.672</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>58.071</v>
       </c>
       <c r="H6" t="n">
-        <v>6.06</v>
+        <v>59.04</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>002591</t>
+          <t>600113</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940</v>
+        <v>2114</v>
       </c>
       <c r="C7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>15.06</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>1.61</v>
+        <v>4.104</v>
       </c>
       <c r="G7" t="n">
-        <v>4.626</v>
+        <v>20.305</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>21.14</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>001231</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>名雕股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3560</v>
+        <v>1339</v>
       </c>
       <c r="C8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>111.63</v>
+        <v>185.39</v>
       </c>
       <c r="F8" t="n">
-        <v>3.23</v>
+        <v>16.057</v>
       </c>
       <c r="G8" t="n">
-        <v>17.242</v>
+        <v>11.537</v>
       </c>
       <c r="H8" t="n">
-        <v>17.8</v>
+        <v>13.39</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>002830</t>
+          <t>001299</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5896</v>
+        <v>1313</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>88.86</v>
+        <v>62.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1.53</v>
+        <v>4.96</v>
       </c>
       <c r="G9" t="n">
-        <v>58.073</v>
+        <v>12.509</v>
       </c>
       <c r="H9" t="n">
-        <v>58.96</v>
+        <v>13.13</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>600113</t>
+          <t>001366</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>677</v>
+        <v>549</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
@@ -844,119 +846,119 @@
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>18.54</v>
+        <v>10.63</v>
       </c>
       <c r="F10" t="n">
-        <v>2.79</v>
+        <v>1.932</v>
       </c>
       <c r="G10" t="n">
-        <v>6.587</v>
+        <v>5.386</v>
       </c>
       <c r="H10" t="n">
-        <v>6.77</v>
+        <v>5.49</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>600235</t>
+          <t>600802</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>674</v>
+        <v>1514</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>20.54</v>
+        <v>8.99</v>
       </c>
       <c r="F11" t="n">
-        <v>3.11</v>
+        <v>0.579</v>
       </c>
       <c r="G11" t="n">
-        <v>6.537</v>
+        <v>7.526</v>
       </c>
       <c r="H11" t="n">
-        <v>6.74</v>
+        <v>7.57</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>600493</t>
+          <t>605001</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>592</v>
+        <v>1214</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>7.4</v>
+        <v>14.19</v>
       </c>
       <c r="F12" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="G12" t="n">
-        <v>5.848</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>5.92</v>
+        <v>6.07</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>600796</t>
+          <t>002591</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>福建水泥</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>546</v>
+        <v>965</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>7.43</v>
+        <v>18.36</v>
       </c>
       <c r="F13" t="n">
-        <v>1.34</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>5.388</v>
+        <v>9.468</v>
       </c>
       <c r="H13" t="n">
-        <v>5.46</v>
+        <v>9.65</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>600802</t>
+          <t>002836</t>
         </is>
       </c>
     </row>
@@ -996,44 +998,44 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>彩蝶实业</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1790</v>
+        <v>906</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>16.8</v>
+        <v>16.39</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.827</v>
       </c>
       <c r="G15" t="n">
-        <v>17.734</v>
+        <v>4.449</v>
       </c>
       <c r="H15" t="n">
-        <v>17.9</v>
+        <v>4.53</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>603073</t>
+          <t>603183</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1460</v>
+        <v>528</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
@@ -1042,97 +1044,97 @@
         <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.98</v>
+        <v>3.66</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.43</v>
+        <v>0.66</v>
       </c>
       <c r="G16" t="n">
-        <v>14.812</v>
+        <v>5.245</v>
       </c>
       <c r="H16" t="n">
-        <v>14.6</v>
+        <v>5.28</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>603137</t>
+          <t>002360</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1752</v>
+        <v>509</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.74</v>
+        <v>7.66</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.01</v>
+        <v>1.495</v>
       </c>
       <c r="G17" t="n">
-        <v>17.699</v>
+        <v>5.015</v>
       </c>
       <c r="H17" t="n">
-        <v>17.52</v>
+        <v>5.09</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>未知代码(浙江万丰股份)</t>
+          <t>002494</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>322</v>
+        <v>940</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>1.78</v>
+        <v>15.06</v>
       </c>
       <c r="F18" t="n">
-        <v>0.49</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>3.204</v>
+        <v>4.626</v>
       </c>
       <c r="H18" t="n">
-        <v>3.22</v>
+        <v>4.7</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>000785</t>
+          <t>002687</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>永东股份</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
@@ -1141,31 +1143,31 @@
         <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.45</v>
+        <v>8.52</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.54</v>
+        <v>1.18</v>
       </c>
       <c r="G19" t="n">
-        <v>6.717</v>
+        <v>7.067</v>
       </c>
       <c r="H19" t="n">
-        <v>6.68</v>
+        <v>7.15</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>002753</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>金房能源</t>
+          <t>优彩资源</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1568</v>
+        <v>819</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
@@ -1174,31 +1176,31 @@
         <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>58.96</v>
+        <v>11.45</v>
       </c>
       <c r="F20" t="n">
-        <v>3.9</v>
+        <v>1.39</v>
       </c>
       <c r="G20" t="n">
-        <v>15.092</v>
+        <v>8.077</v>
       </c>
       <c r="H20" t="n">
-        <v>15.68</v>
+        <v>8.19</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>002998</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>彩蝶实业</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2107</v>
+        <v>1789</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
@@ -1207,31 +1209,31 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>76.59999999999999</v>
+        <v>15.81</v>
       </c>
       <c r="F21" t="n">
-        <v>3.76</v>
+        <v>0.876</v>
       </c>
       <c r="G21" t="n">
-        <v>20.305</v>
+        <v>17.734</v>
       </c>
       <c r="H21" t="n">
-        <v>21.07</v>
+        <v>17.89</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>001231</t>
+          <t>603073</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2596</v>
+        <v>321</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
@@ -1240,31 +1242,31 @@
         <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>1.26</v>
+        <v>0.78</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04</v>
+        <v>0.215</v>
       </c>
       <c r="G22" t="n">
-        <v>25.949</v>
+        <v>3.204</v>
       </c>
       <c r="H22" t="n">
-        <v>25.96</v>
+        <v>3.21</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>001259</t>
+          <t>000785</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1873</v>
+        <v>2595</v>
       </c>
       <c r="C23" t="n">
         <v>100</v>
@@ -1273,31 +1275,31 @@
         <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.26</v>
+        <v>0.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.08</v>
+        <v>0.01</v>
       </c>
       <c r="G23" t="n">
-        <v>18.745</v>
+        <v>25.949</v>
       </c>
       <c r="H23" t="n">
-        <v>18.73</v>
+        <v>25.95</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>001259</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1332</v>
+        <v>663</v>
       </c>
       <c r="C24" t="n">
         <v>100</v>
@@ -1306,31 +1308,31 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>178.39</v>
+        <v>0.55</v>
       </c>
       <c r="F24" t="n">
-        <v>15.45</v>
+        <v>0.122</v>
       </c>
       <c r="G24" t="n">
-        <v>11.537</v>
+        <v>6.627</v>
       </c>
       <c r="H24" t="n">
-        <v>13.32</v>
+        <v>6.63</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>001299</t>
+          <t>002054</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>861</v>
+        <v>675</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
@@ -1339,97 +1341,97 @@
         <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>8.859999999999999</v>
+        <v>16.54</v>
       </c>
       <c r="F25" t="n">
-        <v>1.02</v>
+        <v>2.48</v>
       </c>
       <c r="G25" t="n">
-        <v>8.523</v>
+        <v>6.587</v>
       </c>
       <c r="H25" t="n">
-        <v>8.609999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>600235</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-170.91</v>
+        <v>672</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>102.5641025641026</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>-170.91</v>
+        <v>18.54</v>
       </c>
       <c r="F26" t="n">
-        <v>2.264615384615384</v>
+        <v>2.809</v>
       </c>
       <c r="G26" t="n">
-        <v>23.462</v>
+        <v>6.537</v>
       </c>
       <c r="H26" t="n">
-        <v>12.01782051282051</v>
+        <v>6.72</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>600493</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1309</v>
+        <v>-5.45</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>141.1764705882353</v>
       </c>
       <c r="E27" t="n">
-        <v>58.26</v>
+        <v>-5.45</v>
       </c>
       <c r="F27" t="n">
-        <v>4.64</v>
+        <v>2.008735294117647</v>
       </c>
       <c r="G27" t="n">
-        <v>12.509</v>
+        <v>6.717</v>
       </c>
       <c r="H27" t="n">
-        <v>13.09</v>
+        <v>12.5755</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>000952</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1385</v>
+        <v>859</v>
       </c>
       <c r="C28" t="n">
         <v>100</v>
@@ -1438,31 +1440,31 @@
         <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>3.07</v>
+        <v>6.86</v>
       </c>
       <c r="F28" t="n">
-        <v>0.21</v>
+        <v>0.785</v>
       </c>
       <c r="G28" t="n">
-        <v>13.821</v>
+        <v>8.523</v>
       </c>
       <c r="H28" t="n">
-        <v>13.85</v>
+        <v>8.59</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>001322</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>德美化工</t>
+          <t>金富科技</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>664</v>
+        <v>1228</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
@@ -1471,31 +1473,31 @@
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>1.55</v>
+        <v>9.19</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2</v>
+        <v>0.74</v>
       </c>
       <c r="G29" t="n">
-        <v>6.627</v>
+        <v>12.19</v>
       </c>
       <c r="H29" t="n">
-        <v>6.64</v>
+        <v>12.28</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>002054</t>
+          <t>003018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="C30" t="n">
         <v>100</v>
@@ -1504,152 +1506,152 @@
         <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>3.66</v>
+        <v>4.61</v>
       </c>
       <c r="F30" t="n">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="G30" t="n">
-        <v>5.245</v>
+        <v>5.846</v>
       </c>
       <c r="H30" t="n">
-        <v>5.28</v>
+        <v>5.89</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>600796</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>509</v>
+        <v>1457</v>
       </c>
       <c r="C31" t="n">
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E31" t="n">
-        <v>7.47</v>
+        <v>-23.98</v>
       </c>
       <c r="F31" t="n">
-        <v>1.45</v>
+        <v>-1.636</v>
       </c>
       <c r="G31" t="n">
-        <v>5.017</v>
+        <v>14.812</v>
       </c>
       <c r="H31" t="n">
-        <v>5.09</v>
+        <v>14.57</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>002494</t>
+          <t>603137</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>715</v>
+        <v>1867</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>8.32</v>
+        <v>-7.25</v>
       </c>
       <c r="F32" t="n">
-        <v>1.15</v>
+        <v>-0.4</v>
       </c>
       <c r="G32" t="n">
-        <v>7.069</v>
+        <v>18.745</v>
       </c>
       <c r="H32" t="n">
-        <v>7.15</v>
+        <v>18.67</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>002753</t>
+          <t>001278</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.16</v>
+        <v>1377</v>
       </c>
       <c r="C33" t="n">
         <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>102.5641025641026</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>17.16</v>
+        <v>-4.93</v>
       </c>
       <c r="F33" t="n">
-        <v>2.264615384615384</v>
+        <v>-0.376</v>
       </c>
       <c r="G33" t="n">
-        <v>9.470000000000001</v>
+        <v>13.821</v>
       </c>
       <c r="H33" t="n">
-        <v>12.01782051282051</v>
+        <v>13.77</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>002836</t>
+          <t>001387</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>优彩资源</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>819</v>
+        <v>1743</v>
       </c>
       <c r="C34" t="n">
         <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>11.25</v>
+        <v>-26.33</v>
       </c>
       <c r="F34" t="n">
-        <v>1.37</v>
+        <v>-1.497</v>
       </c>
       <c r="G34" t="n">
-        <v>8.079000000000001</v>
+        <v>17.695</v>
       </c>
       <c r="H34" t="n">
-        <v>8.19</v>
+        <v>17.43</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>002998</t>
+          <t>未知代码(浙江万丰股份)</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1662,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2215</v>
+        <v>2204</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
@@ -1669,16 +1671,16 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>20.51</v>
+        <v>9.52</v>
       </c>
       <c r="F35" t="n">
-        <v>0.93</v>
+        <v>0.425</v>
       </c>
       <c r="G35" t="n">
         <v>21.947</v>
       </c>
       <c r="H35" t="n">
-        <v>22.15</v>
+        <v>22.04</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1689,11 +1691,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>金富科技</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1230</v>
+        <v>2158</v>
       </c>
       <c r="C36" t="n">
         <v>100</v>
@@ -1702,218 +1704,20 @@
         <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>11.18</v>
+        <v>-187.9</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9</v>
+        <v>-8.02</v>
       </c>
       <c r="G36" t="n">
-        <v>12.19</v>
+        <v>23.462</v>
       </c>
       <c r="H36" t="n">
-        <v>12.3</v>
+        <v>21.58</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>003018</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G37" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>601827</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>菲林格尔</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>68.87</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="G38" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="H38" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>603226</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-7.57</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G39" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-5.19</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G40" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="H40" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>002790</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-85.8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="G41" t="n">
-        <v>10.874</v>
-      </c>
-      <c r="H41" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>002968</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-4.15</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G42" t="n">
-        <v>3.548</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>002969</t>
+          <t>001333</t>
         </is>
       </c>
     </row>
@@ -1971,27 +1775,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 41.6%</t>
+          <t>仓位 86.4%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>57,956.04</t>
+          <t>8,469.93</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24,131.00</t>
+          <t>7,322.00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-42.1</v>
+        <v>321.22</v>
       </c>
       <c r="E2" t="n">
-        <v>824.51</v>
+        <v>147.81</v>
       </c>
       <c r="F2" t="n">
-        <v>824.51</v>
+        <v>147.81</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +1809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2063,104 +1867,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>宏创控股</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3990</v>
+        <v>1808</v>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>-685.4</v>
+        <v>167.84</v>
       </c>
       <c r="F2" t="n">
-        <v>-14.662</v>
+        <v>10.23</v>
       </c>
       <c r="G2" t="n">
-        <v>9.351000000000001</v>
+        <v>16.402</v>
       </c>
       <c r="H2" t="n">
-        <v>7.98</v>
+        <v>18.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2177</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>恒宝股份</t>
+          <t>兴业银锡</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2482</v>
+        <v>2423</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.21</v>
+        <v>66.78</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.289</v>
+        <v>2.835</v>
       </c>
       <c r="G3" t="n">
-        <v>24.892</v>
+        <v>23.562</v>
       </c>
       <c r="H3" t="n">
-        <v>24.82</v>
+        <v>24.23</v>
       </c>
       <c r="I3" t="n">
-        <v>2104</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>立讯精密</t>
+          <t>常宝股份</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5290</v>
+        <v>565</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>594.6</v>
+        <v>0.89</v>
       </c>
       <c r="F4" t="n">
-        <v>12.663</v>
+        <v>0.16</v>
       </c>
       <c r="G4" t="n">
-        <v>46.954</v>
+        <v>5.641</v>
       </c>
       <c r="H4" t="n">
-        <v>52.9</v>
+        <v>5.65</v>
       </c>
       <c r="I4" t="n">
-        <v>2475</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>鸿路钢构</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2695</v>
+        <v>1844</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
@@ -2169,29 +1973,29 @@
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>206.79</v>
+        <v>-24.18</v>
       </c>
       <c r="F5" t="n">
-        <v>8.311</v>
+        <v>-1.295</v>
       </c>
       <c r="G5" t="n">
-        <v>24.882</v>
+        <v>18.682</v>
       </c>
       <c r="H5" t="n">
-        <v>26.95</v>
+        <v>18.44</v>
       </c>
       <c r="I5" t="n">
-        <v>2536</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>钧达股份</t>
+          <t>武进不锈</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4590</v>
+        <v>681</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
@@ -2200,81 +2004,19 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>-178.41</v>
+        <v>108.89</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.741</v>
+        <v>19.035</v>
       </c>
       <c r="G6" t="n">
-        <v>47.684</v>
+        <v>5.721</v>
       </c>
       <c r="H6" t="n">
-        <v>45.9</v>
+        <v>6.81</v>
       </c>
       <c r="I6" t="n">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>传艺科技</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19.622</v>
-      </c>
-      <c r="H7" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2866</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3118</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-52.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="G8" t="n">
-        <v>31.703</v>
-      </c>
-      <c r="H8" t="n">
-        <v>31.18</v>
-      </c>
-      <c r="I8" t="n">
-        <v>605488</v>
+        <v>603878</v>
       </c>
     </row>
   </sheetData>
@@ -2331,32 +2073,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 86.3%</t>
+          <t>仓位 44.0%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8,366.85</t>
+          <t>58,303.85</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7,219.00</t>
+          <t>25,678.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+218.22</t>
+          <t>+227.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>147.81</t>
+          <t>625.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>147.81</t>
+          <t>625.32</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2429,11 +2171,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>兴业银锡</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2369</v>
+        <v>3430</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
@@ -2442,152 +2184,218 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>12.78</v>
+        <v>259.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.543</v>
+        <v>8.192</v>
       </c>
       <c r="G2" t="n">
-        <v>23.562</v>
+        <v>31.703</v>
       </c>
       <c r="H2" t="n">
-        <v>23.69</v>
+        <v>34.3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>000426</t>
+          <t>605488</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>宏创控股</t>
+          <t>紫光国微</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1724</v>
+        <v>7833</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>83.84</v>
+        <v>-67.67</v>
       </c>
       <c r="F3" t="n">
-        <v>5.109</v>
+        <v>-0.857</v>
       </c>
       <c r="G3" t="n">
-        <v>16.402</v>
+        <v>79.00700000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>17.24</v>
+        <v>78.33</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>002379</t>
+          <t>002049</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>常宝股份</t>
+          <t>精达股份</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>571</v>
+        <v>858</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.89</v>
+        <v>20.89</v>
       </c>
       <c r="F4" t="n">
-        <v>1.223</v>
+        <v>2.497</v>
       </c>
       <c r="G4" t="n">
-        <v>5.641</v>
+        <v>8.371</v>
       </c>
       <c r="H4" t="n">
-        <v>5.71</v>
+        <v>8.58</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>002478</t>
+          <t>600577</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>鸿路钢构</t>
+          <t>恒宝股份</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1850</v>
+        <v>2483</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.18</v>
+        <v>19.11</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.974</v>
+        <v>0.775</v>
       </c>
       <c r="G5" t="n">
-        <v>18.682</v>
+        <v>24.639</v>
       </c>
       <c r="H5" t="n">
-        <v>18.5</v>
+        <v>24.83</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>002541</t>
+          <t>002104</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>武进不锈</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>705</v>
+        <v>3940</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>132.89</v>
+        <v>-735.4</v>
       </c>
       <c r="F6" t="n">
-        <v>23.23</v>
+        <v>-15.731</v>
       </c>
       <c r="G6" t="n">
-        <v>5.721</v>
+        <v>9.351000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>7.05</v>
+        <v>7.88</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>603878</t>
+          <t>002177</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4530</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-238.41</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>47.684</v>
+      </c>
+      <c r="H7" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>002865</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2604</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>115.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.654</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24.882</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>002536</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -10,9 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_表头数据" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券_持仓数据" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_表头数据" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券_持仓数据" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_表头数据" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券_持仓数据" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,31 +472,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 92.9%</t>
+          <t>仓位 89.3%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>62,967.64</t>
+          <t>62,531.14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>58,499.30</t>
+          <t>55,830.20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1,841.79</t>
+          <t>+1,338.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,468.34</t>
+          <t>6,700.94</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>468.01</v>
+        <v>700.72</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,11 +568,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>金房能源</t>
+          <t>劲旅环境</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1593</v>
+        <v>2393</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
@@ -582,130 +581,130 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>83.93000000000001</v>
+        <v>-20.61</v>
       </c>
       <c r="F2" t="n">
-        <v>5.55</v>
+        <v>-0.86</v>
       </c>
       <c r="G2" t="n">
-        <v>15.092</v>
+        <v>24.138</v>
       </c>
       <c r="H2" t="n">
-        <v>15.93</v>
+        <v>23.93</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>001230</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12048.3</v>
+        <v>2320</v>
       </c>
       <c r="C3" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>18.76823529411765</v>
+        <v>-9.56</v>
       </c>
       <c r="F3" t="n">
-        <v>11.223</v>
+        <v>-0.424</v>
       </c>
       <c r="G3" t="n">
-        <v>12.036</v>
+        <v>23.298</v>
       </c>
       <c r="H3" t="n">
-        <v>13.387</v>
+        <v>23.2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>未知代码(可转债ETF)</t>
+          <t>001336</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>名雕股份</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3578</v>
+        <v>2206</v>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>129.62</v>
+        <v>11.51</v>
       </c>
       <c r="F4" t="n">
-        <v>3.76</v>
+        <v>0.519</v>
       </c>
       <c r="G4" t="n">
-        <v>17.242</v>
+        <v>21.947</v>
       </c>
       <c r="H4" t="n">
-        <v>17.89</v>
+        <v>22.06</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>002830</t>
+          <t>003008</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>600</v>
+        <v>1423</v>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87</v>
+        <v>-57.96</v>
       </c>
       <c r="F5" t="n">
-        <v>9.835000000000001</v>
+        <v>-3.93</v>
       </c>
       <c r="G5" t="n">
-        <v>2.732</v>
+        <v>14.812</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>14.23</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>600159</t>
+          <t>603137</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5904</v>
+        <v>731</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
@@ -714,64 +713,64 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>97.06</v>
+        <v>-1.49</v>
       </c>
       <c r="F6" t="n">
-        <v>1.672</v>
+        <v>-0.221</v>
       </c>
       <c r="G6" t="n">
-        <v>58.071</v>
+        <v>7.327</v>
       </c>
       <c r="H6" t="n">
-        <v>59.04</v>
+        <v>7.31</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>600113</t>
+          <t>600080</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114</v>
+        <v>12023.1</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E7" t="n">
-        <v>83.59999999999999</v>
+        <v>1.952424242424242</v>
       </c>
       <c r="F7" t="n">
-        <v>4.104</v>
+        <v>10.988</v>
       </c>
       <c r="G7" t="n">
-        <v>20.305</v>
+        <v>12.036</v>
       </c>
       <c r="H7" t="n">
-        <v>21.14</v>
+        <v>13.359</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>001231</t>
+          <t>未知代码(可转债ETF)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1339</v>
+        <v>673</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
@@ -780,64 +779,64 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>185.39</v>
+        <v>19.54</v>
       </c>
       <c r="F8" t="n">
-        <v>16.057</v>
+        <v>2.966</v>
       </c>
       <c r="G8" t="n">
-        <v>11.537</v>
+        <v>6.537</v>
       </c>
       <c r="H8" t="n">
-        <v>13.39</v>
+        <v>6.73</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>001299</t>
+          <t>600493</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1313</v>
+        <v>900</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>62.25</v>
+        <v>10.39</v>
       </c>
       <c r="F9" t="n">
-        <v>4.96</v>
+        <v>1.149</v>
       </c>
       <c r="G9" t="n">
-        <v>12.509</v>
+        <v>4.449</v>
       </c>
       <c r="H9" t="n">
-        <v>13.13</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>603183</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>福建水泥</t>
+          <t>双箭股份</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>549</v>
+        <v>685</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
@@ -846,97 +845,97 @@
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>10.63</v>
+        <v>-2.46</v>
       </c>
       <c r="F10" t="n">
-        <v>1.932</v>
+        <v>-0.404</v>
       </c>
       <c r="G10" t="n">
-        <v>5.386</v>
+        <v>6.877</v>
       </c>
       <c r="H10" t="n">
-        <v>5.49</v>
+        <v>6.85</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>600802</t>
+          <t>002381</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1514</v>
+        <v>551</v>
       </c>
       <c r="C11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>8.99</v>
+        <v>12.62</v>
       </c>
       <c r="F11" t="n">
-        <v>0.579</v>
+        <v>2.302</v>
       </c>
       <c r="G11" t="n">
-        <v>7.526</v>
+        <v>5.386</v>
       </c>
       <c r="H11" t="n">
-        <v>7.57</v>
+        <v>5.51</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>605001</t>
+          <t>600802</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1214</v>
+        <v>1334</v>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>14.19</v>
+        <v>180.39</v>
       </c>
       <c r="F12" t="n">
-        <v>1.17</v>
+        <v>15.63</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>11.537</v>
       </c>
       <c r="H12" t="n">
-        <v>6.07</v>
+        <v>13.34</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>002591</t>
+          <t>001299</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965</v>
+        <v>525</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
@@ -945,31 +944,31 @@
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>18.36</v>
+        <v>0.66</v>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>0.09</v>
       </c>
       <c r="G13" t="n">
-        <v>9.468</v>
+        <v>5.245</v>
       </c>
       <c r="H13" t="n">
-        <v>9.65</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>002836</t>
+          <t>002360</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C14" t="n">
         <v>100</v>
@@ -978,64 +977,64 @@
         <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>0.67</v>
+        <v>3.67</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>4.965</v>
+        <v>5.015</v>
       </c>
       <c r="H14" t="n">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>600925</t>
+          <t>002494</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>906</v>
+        <v>496</v>
       </c>
       <c r="C15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>16.39</v>
+        <v>-0.33</v>
       </c>
       <c r="F15" t="n">
-        <v>1.827</v>
+        <v>-0.11</v>
       </c>
       <c r="G15" t="n">
-        <v>4.449</v>
+        <v>4.965</v>
       </c>
       <c r="H15" t="n">
-        <v>4.53</v>
+        <v>4.96</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>603183</t>
+          <t>600925</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>528</v>
+        <v>315</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
@@ -1044,31 +1043,31 @@
         <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>3.66</v>
+        <v>-5.22</v>
       </c>
       <c r="F16" t="n">
-        <v>0.66</v>
+        <v>-1.69</v>
       </c>
       <c r="G16" t="n">
-        <v>5.245</v>
+        <v>3.204</v>
       </c>
       <c r="H16" t="n">
-        <v>5.28</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>000785</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>509</v>
+        <v>1849</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
@@ -1077,53 +1076,53 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>7.66</v>
+        <v>-25.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1.495</v>
+        <v>-1.354</v>
       </c>
       <c r="G17" t="n">
-        <v>5.015</v>
+        <v>18.745</v>
       </c>
       <c r="H17" t="n">
-        <v>5.09</v>
+        <v>18.49</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>002494</t>
+          <t>001278</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>940</v>
+        <v>657</v>
       </c>
       <c r="C18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>15.06</v>
+        <v>-5.45</v>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>-0.857</v>
       </c>
       <c r="G18" t="n">
-        <v>4.626</v>
+        <v>6.627</v>
       </c>
       <c r="H18" t="n">
-        <v>4.7</v>
+        <v>6.57</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>002054</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1133,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
@@ -1143,16 +1142,16 @@
         <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>8.52</v>
+        <v>2.52</v>
       </c>
       <c r="F19" t="n">
-        <v>1.18</v>
+        <v>0.336</v>
       </c>
       <c r="G19" t="n">
         <v>7.067</v>
       </c>
       <c r="H19" t="n">
-        <v>7.15</v>
+        <v>7.09</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1163,11 +1162,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>优彩资源</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>819</v>
+        <v>660</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
@@ -1176,31 +1175,31 @@
         <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>11.45</v>
+        <v>-11.45</v>
       </c>
       <c r="F20" t="n">
-        <v>1.39</v>
+        <v>-1.74</v>
       </c>
       <c r="G20" t="n">
-        <v>8.077</v>
+        <v>6.717</v>
       </c>
       <c r="H20" t="n">
-        <v>8.19</v>
+        <v>6.6</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>002998</t>
+          <t>000952</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>彩蝶实业</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1789</v>
+        <v>950</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
@@ -1209,31 +1208,31 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>15.81</v>
+        <v>3.36</v>
       </c>
       <c r="F21" t="n">
-        <v>0.876</v>
+        <v>0.33</v>
       </c>
       <c r="G21" t="n">
-        <v>17.734</v>
+        <v>9.468</v>
       </c>
       <c r="H21" t="n">
-        <v>17.89</v>
+        <v>9.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>603073</t>
+          <t>002836</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>321</v>
+        <v>2168</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
@@ -1242,31 +1241,31 @@
         <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>0.78</v>
+        <v>-177.9</v>
       </c>
       <c r="F22" t="n">
-        <v>0.215</v>
+        <v>-7.591</v>
       </c>
       <c r="G22" t="n">
-        <v>3.204</v>
+        <v>23.462</v>
       </c>
       <c r="H22" t="n">
-        <v>3.21</v>
+        <v>21.68</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>000785</t>
+          <t>001333</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2595</v>
+        <v>777</v>
       </c>
       <c r="C23" t="n">
         <v>100</v>
@@ -1275,31 +1274,31 @@
         <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>0.26</v>
+        <v>-5.53</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01</v>
+        <v>-0.728</v>
       </c>
       <c r="G23" t="n">
-        <v>25.949</v>
+        <v>7.827</v>
       </c>
       <c r="H23" t="n">
-        <v>25.95</v>
+        <v>7.77</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>001259</t>
+          <t>002817</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>德美化工</t>
+          <t>金富科技</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>663</v>
+        <v>1217</v>
       </c>
       <c r="C24" t="n">
         <v>100</v>
@@ -1308,31 +1307,31 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>0.55</v>
+        <v>-1.81</v>
       </c>
       <c r="F24" t="n">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.627</v>
+        <v>12.19</v>
       </c>
       <c r="H24" t="n">
-        <v>6.63</v>
+        <v>12.17</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>002054</t>
+          <t>003018</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>上海雅仕</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675</v>
+        <v>1137</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
@@ -1341,130 +1340,130 @@
         <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>16.54</v>
+        <v>-20.77</v>
       </c>
       <c r="F25" t="n">
-        <v>2.48</v>
+        <v>-1.81</v>
       </c>
       <c r="G25" t="n">
-        <v>6.587</v>
+        <v>11.58</v>
       </c>
       <c r="H25" t="n">
-        <v>6.75</v>
+        <v>11.37</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>600235</t>
+          <t>603329</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>672</v>
+        <v>-0.85</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>136.3636363636364</v>
       </c>
       <c r="E26" t="n">
-        <v>18.54</v>
+        <v>-0.85</v>
       </c>
       <c r="F26" t="n">
-        <v>2.809</v>
+        <v>0.946121212121212</v>
       </c>
       <c r="G26" t="n">
-        <v>6.537</v>
+        <v>12.581</v>
       </c>
       <c r="H26" t="n">
-        <v>6.72</v>
+        <v>11.50239393939394</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>600493</t>
+          <t>603968</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-5.45</v>
+        <v>1294</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>141.1764705882353</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>-5.45</v>
+        <v>43.26</v>
       </c>
       <c r="F27" t="n">
-        <v>2.008735294117647</v>
+        <v>3.44</v>
       </c>
       <c r="G27" t="n">
-        <v>6.717</v>
+        <v>12.509</v>
       </c>
       <c r="H27" t="n">
-        <v>12.5755</v>
+        <v>12.94</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>001366</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>859</v>
+        <v>928</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E28" t="n">
-        <v>6.86</v>
+        <v>3.06</v>
       </c>
       <c r="F28" t="n">
-        <v>0.785</v>
+        <v>0.321</v>
       </c>
       <c r="G28" t="n">
-        <v>8.523</v>
+        <v>4.626</v>
       </c>
       <c r="H28" t="n">
-        <v>8.59</v>
+        <v>4.64</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>002687</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>金富科技</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1228</v>
+        <v>1371</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
@@ -1473,31 +1472,31 @@
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>9.19</v>
+        <v>-10.93</v>
       </c>
       <c r="F29" t="n">
-        <v>0.74</v>
+        <v>-0.8080000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>12.19</v>
+        <v>13.821</v>
       </c>
       <c r="H29" t="n">
-        <v>12.28</v>
+        <v>13.71</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>003018</t>
+          <t>001387</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>优彩资源</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>589</v>
+        <v>812</v>
       </c>
       <c r="C30" t="n">
         <v>100</v>
@@ -1506,64 +1505,64 @@
         <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>4.61</v>
+        <v>4.45</v>
       </c>
       <c r="F30" t="n">
-        <v>0.75</v>
+        <v>0.531</v>
       </c>
       <c r="G30" t="n">
-        <v>5.846</v>
+        <v>8.077</v>
       </c>
       <c r="H30" t="n">
-        <v>5.89</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>600796</t>
+          <t>002998</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1457</v>
+        <v>604</v>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.98</v>
+        <v>57.87</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.636</v>
+        <v>10.56</v>
       </c>
       <c r="G31" t="n">
-        <v>14.812</v>
+        <v>2.732</v>
       </c>
       <c r="H31" t="n">
-        <v>14.57</v>
+        <v>3.02</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>603137</t>
+          <t>600159</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>金房能源</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1867</v>
+        <v>1568</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
@@ -1572,31 +1571,31 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.25</v>
+        <v>58.95</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.4</v>
+        <v>3.894</v>
       </c>
       <c r="G32" t="n">
-        <v>18.745</v>
+        <v>15.092</v>
       </c>
       <c r="H32" t="n">
-        <v>18.67</v>
+        <v>15.68</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>001210</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1377</v>
+        <v>2560</v>
       </c>
       <c r="C33" t="n">
         <v>100</v>
@@ -1605,31 +1604,31 @@
         <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>-4.93</v>
+        <v>-34.72</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.376</v>
+        <v>-1.343</v>
       </c>
       <c r="G33" t="n">
-        <v>13.821</v>
+        <v>25.949</v>
       </c>
       <c r="H33" t="n">
-        <v>13.77</v>
+        <v>25.6</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>001259</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>彩蝶实业</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1743</v>
+        <v>1774</v>
       </c>
       <c r="C34" t="n">
         <v>100</v>
@@ -1638,86 +1637,53 @@
         <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.33</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.497</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>17.695</v>
+        <v>17.734</v>
       </c>
       <c r="H34" t="n">
-        <v>17.43</v>
+        <v>17.74</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>未知代码(浙江万丰股份)</t>
+          <t>603073</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>名雕股份</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2204</v>
+        <v>3492</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" t="n">
-        <v>9.52</v>
+        <v>43.66</v>
       </c>
       <c r="F35" t="n">
-        <v>0.425</v>
+        <v>1.261</v>
       </c>
       <c r="G35" t="n">
-        <v>21.947</v>
+        <v>17.242</v>
       </c>
       <c r="H35" t="n">
-        <v>22.04</v>
+        <v>17.46</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>003008</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2158</v>
-      </c>
-      <c r="C36" t="n">
-        <v>100</v>
-      </c>
-      <c r="D36" t="n">
-        <v>100</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-187.9</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-8.02</v>
-      </c>
-      <c r="G36" t="n">
-        <v>23.462</v>
-      </c>
-      <c r="H36" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>001333</t>
+          <t>002830</t>
         </is>
       </c>
     </row>
@@ -1727,6 +1693,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>仓位</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总资产</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>总市值</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>浮动盈亏</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>可用</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>可取</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1775,248 +1792,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 86.4%</t>
+          <t>仓位 27.9%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8,469.93</t>
+          <t>58,405.31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7,322.00</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>321.22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>147.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>147.81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>持仓</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>可用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>当前价</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>宏创控股</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1808</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" t="n">
-        <v>167.84</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.402</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>兴业银锡</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2423</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.835</v>
-      </c>
-      <c r="G3" t="n">
-        <v>23.562</v>
-      </c>
-      <c r="H3" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="I3" t="n">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>常宝股份</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>565</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.641</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>鸿路钢构</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1844</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-24.18</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-1.295</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18.682</v>
-      </c>
-      <c r="H5" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>武进不锈</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>681</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>108.89</v>
-      </c>
-      <c r="F6" t="n">
-        <v>19.035</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.721</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="I6" t="n">
-        <v>603878</v>
+          <t>16,308.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-525.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2041,174 +1843,91 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>仓位</t>
+          <t>标的名称</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>总资产</t>
+          <t>市值</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>总市值</t>
+          <t>持仓</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>浮动盈亏</t>
+          <t>可用</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>可用</t>
+          <t>盈亏</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>可取</t>
+          <t>盈亏率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>成本价</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>当前价</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 44.0%</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>58,303.85</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>25,678.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+227.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>625.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>625.32</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>持仓</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>可用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>当前价</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
+          <t>钧达股份</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3430</v>
+        <v>4591</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>259.7</v>
+        <v>-179.54</v>
       </c>
       <c r="F2" t="n">
-        <v>8.192</v>
+        <v>-3.763</v>
       </c>
       <c r="G2" t="n">
-        <v>31.703</v>
+        <v>47.705</v>
       </c>
       <c r="H2" t="n">
-        <v>34.3</v>
+        <v>45.91</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>605488</t>
+          <t>002865</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>紫光国微</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7833</v>
+        <v>3420</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
@@ -2217,31 +1936,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-67.67</v>
+        <v>295.3</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.857</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>79.00700000000001</v>
+        <v>31.247</v>
       </c>
       <c r="H3" t="n">
-        <v>78.33</v>
+        <v>34.2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>002049</t>
+          <t>605488</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>精达股份</t>
+          <t>美的集团</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858</v>
+        <v>7517</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
@@ -2250,31 +1969,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.89</v>
+        <v>22.36</v>
       </c>
       <c r="F4" t="n">
-        <v>2.497</v>
+        <v>0.299</v>
       </c>
       <c r="G4" t="n">
-        <v>8.371</v>
+        <v>74.946</v>
       </c>
       <c r="H4" t="n">
-        <v>8.58</v>
+        <v>75.17</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>600577</t>
+          <t>000333</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>恒宝股份</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2483</v>
+        <v>780</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
@@ -2283,119 +2002,20 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>19.11</v>
+        <v>-782.78</v>
       </c>
       <c r="F5" t="n">
-        <v>0.775</v>
+        <v>-50.09</v>
       </c>
       <c r="G5" t="n">
-        <v>24.639</v>
+        <v>15.628</v>
       </c>
       <c r="H5" t="n">
-        <v>24.83</v>
+        <v>7.8</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>002104</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>御银股份</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3940</v>
-      </c>
-      <c r="C6" t="n">
-        <v>500</v>
-      </c>
-      <c r="D6" t="n">
-        <v>500</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-735.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-15.731</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.351000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
           <t>002177</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>钧达股份</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4530</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-238.41</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>47.684</v>
-      </c>
-      <c r="H7" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>002865</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>飞龙股份</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2604</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>115.79</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.654</v>
-      </c>
-      <c r="G8" t="n">
-        <v>24.882</v>
-      </c>
-      <c r="H8" t="n">
-        <v>26.04</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>002536</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/account_info.xlsx
+++ b/Investment/THS/AutoTrade/data/position/account_info.xlsx
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>62,837.00</t>
+          <t>62,840.60</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1,417.30</t>
+          <t>+1,420.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,7 +1151,7 @@
         <v>900</v>
       </c>
       <c r="E2" t="n">
-        <v>5.88</v>
+        <v>-6.180000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>10.76</v>
@@ -1171,110 +1171,110 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4935</v>
+        <v>730</v>
       </c>
       <c r="C3" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>-48.51</v>
+        <v>-2.49</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.98</v>
+        <v>-0.37</v>
       </c>
       <c r="G3" t="n">
-        <v>3.322</v>
+        <v>7.327</v>
       </c>
       <c r="H3" t="n">
-        <v>3.29</v>
+        <v>7.3</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>000785</t>
+          <t>600080</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>浪莎股份</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4666</v>
+        <v>1920</v>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>15.87</v>
+        <v>-11.28</v>
       </c>
       <c r="F4" t="n">
-        <v>0.34</v>
+        <v>-0.59</v>
       </c>
       <c r="G4" t="n">
-        <v>23.252</v>
+        <v>19.315</v>
       </c>
       <c r="H4" t="n">
-        <v>23.33</v>
+        <v>19.2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>001336</t>
+          <t>600137</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4560</v>
+        <v>679</v>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>-43.26</v>
+        <v>25.54</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9399999999999999</v>
+        <v>3.88</v>
       </c>
       <c r="G5" t="n">
-        <v>4.604</v>
+        <v>6.537</v>
       </c>
       <c r="H5" t="n">
-        <v>4.56</v>
+        <v>6.79</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>603183</t>
+          <t>600493</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3975</v>
+        <v>581</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
@@ -1283,31 +1283,31 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.67</v>
+        <v>0.61</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>39.909</v>
+        <v>5.806</v>
       </c>
       <c r="H6" t="n">
-        <v>39.75</v>
+        <v>5.81</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>603322</t>
+          <t>600917</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2194</v>
+        <v>496</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
@@ -1316,31 +1316,31 @@
         <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>-151.93</v>
+        <v>-0.33</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.49</v>
+        <v>-0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>23.462</v>
+        <v>4.965</v>
       </c>
       <c r="H7" t="n">
-        <v>21.94</v>
+        <v>4.96</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>600925</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2010</v>
+        <v>685</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
@@ -1349,31 +1349,31 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.55</v>
+        <v>-1.46</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.58</v>
+        <v>-0.24</v>
       </c>
       <c r="G8" t="n">
-        <v>20.218</v>
+        <v>6.867</v>
       </c>
       <c r="H8" t="n">
-        <v>20.1</v>
+        <v>6.85</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>001260</t>
+          <t>603122</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>浪莎股份</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1920</v>
+        <v>1426</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
@@ -1382,130 +1382,130 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.28</v>
+        <v>-54.96</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.59</v>
+        <v>-3.73</v>
       </c>
       <c r="G9" t="n">
-        <v>19.315</v>
+        <v>14.812</v>
       </c>
       <c r="H9" t="n">
-        <v>19.2</v>
+        <v>14.26</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>600137</t>
+          <t>603137</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1871</v>
+        <v>1758</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>11.74</v>
+        <v>-35.18</v>
       </c>
       <c r="F10" t="n">
-        <v>0.62</v>
+        <v>-1.97</v>
       </c>
       <c r="G10" t="n">
-        <v>18.595</v>
+        <v>17.934</v>
       </c>
       <c r="H10" t="n">
-        <v>18.71</v>
+        <v>17.58</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>未知代码(浙江万丰股份)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1758</v>
+        <v>4560</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-35.38</v>
+        <v>-43.06</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.98</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>17.936</v>
+        <v>4.603</v>
       </c>
       <c r="H11" t="n">
-        <v>17.58</v>
+        <v>4.56</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>未知代码(浙江万丰股份)</t>
+          <t>603183</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1680</v>
+        <v>3975</v>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.69</v>
+        <v>-15.67</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.05</v>
+        <v>-0.4</v>
       </c>
       <c r="G12" t="n">
-        <v>8.489000000000001</v>
+        <v>39.909</v>
       </c>
       <c r="H12" t="n">
-        <v>8.4</v>
+        <v>39.75</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>603322</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>弘宇股份</t>
+          <t>百达精工</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1515</v>
+        <v>1107</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
@@ -1514,196 +1514,196 @@
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>50.99</v>
+        <v>18.27</v>
       </c>
       <c r="F13" t="n">
-        <v>3.47</v>
+        <v>1.66</v>
       </c>
       <c r="G13" t="n">
-        <v>14.642</v>
+        <v>10.889</v>
       </c>
       <c r="H13" t="n">
-        <v>15.15</v>
+        <v>11.07</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>002890</t>
+          <t>603331</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1426</v>
+        <v>1247</v>
       </c>
       <c r="C14" t="n">
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-54.96</v>
+        <v>-12.84</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.73</v>
+        <v>-1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>14.812</v>
+        <v>12.601</v>
       </c>
       <c r="H14" t="n">
-        <v>14.26</v>
+        <v>12.47</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>603137</t>
+          <t>603968</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1407</v>
+        <v>769</v>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>-8.140000000000001</v>
+        <v>22.49</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.59</v>
+        <v>2.99</v>
       </c>
       <c r="G15" t="n">
-        <v>14.153</v>
+        <v>7.467</v>
       </c>
       <c r="H15" t="n">
-        <v>14.07</v>
+        <v>7.69</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>605001</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>春雪食品</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1294</v>
+        <v>1032</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>43.26</v>
+        <v>-11.7</v>
       </c>
       <c r="F16" t="n">
-        <v>3.44</v>
+        <v>-1.14</v>
       </c>
       <c r="G16" t="n">
-        <v>12.509</v>
+        <v>10.439</v>
       </c>
       <c r="H16" t="n">
-        <v>12.94</v>
+        <v>10.32</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>605567</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>德龙汇能</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1247</v>
+        <v>665</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>-13.04</v>
+        <v>-2.45</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.05</v>
+        <v>-0.4</v>
       </c>
       <c r="G17" t="n">
-        <v>12.602</v>
+        <v>6.676</v>
       </c>
       <c r="H17" t="n">
-        <v>12.47</v>
+        <v>6.65</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>603968</t>
+          <t>000593</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>百达精工</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1107</v>
+        <v>4935</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>18.27</v>
+        <v>-48.31</v>
       </c>
       <c r="F18" t="n">
-        <v>1.66</v>
+        <v>-0.98</v>
       </c>
       <c r="G18" t="n">
-        <v>10.889</v>
+        <v>3.322</v>
       </c>
       <c r="H18" t="n">
-        <v>11.07</v>
+        <v>3.29</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>603331</t>
+          <t>000785</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>美芝股份</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1070</v>
+        <v>653</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
@@ -1712,31 +1712,31 @@
         <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.72</v>
+        <v>-18.45</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.27</v>
+        <v>-2.78</v>
       </c>
       <c r="G19" t="n">
-        <v>10.729</v>
+        <v>6.717</v>
       </c>
       <c r="H19" t="n">
-        <v>10.7</v>
+        <v>6.53</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>002856</t>
+          <t>000952</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>春雪食品</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1032</v>
+        <v>2010</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
@@ -1745,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-11.9</v>
+        <v>-11.35</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.16</v>
+        <v>-0.57</v>
       </c>
       <c r="G20" t="n">
-        <v>10.441</v>
+        <v>20.215</v>
       </c>
       <c r="H20" t="n">
-        <v>10.32</v>
+        <v>20.1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>605567</t>
+          <t>001260</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957</v>
+        <v>1871</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
@@ -1778,31 +1778,31 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>10.36</v>
+        <v>11.74</v>
       </c>
       <c r="F21" t="n">
-        <v>1.07</v>
+        <v>0.62</v>
       </c>
       <c r="G21" t="n">
-        <v>9.468</v>
+        <v>18.595</v>
       </c>
       <c r="H21" t="n">
-        <v>9.57</v>
+        <v>18.71</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>002836</t>
+          <t>001278</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>936</v>
+        <v>1680</v>
       </c>
       <c r="C22" t="n">
         <v>200</v>
@@ -1811,31 +1811,31 @@
         <v>200</v>
       </c>
       <c r="E22" t="n">
-        <v>11.06</v>
+        <v>-17.69</v>
       </c>
       <c r="F22" t="n">
-        <v>1.17</v>
+        <v>-1.05</v>
       </c>
       <c r="G22" t="n">
-        <v>4.626</v>
+        <v>8.489000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>4.68</v>
+        <v>8.4</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>001322</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>优彩资源</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>824</v>
+        <v>2194</v>
       </c>
       <c r="C23" t="n">
         <v>100</v>
@@ -1844,64 +1844,64 @@
         <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>16.45</v>
+        <v>-151.93</v>
       </c>
       <c r="F23" t="n">
-        <v>2.01</v>
+        <v>-6.49</v>
       </c>
       <c r="G23" t="n">
-        <v>8.077</v>
+        <v>23.462</v>
       </c>
       <c r="H23" t="n">
-        <v>8.24</v>
+        <v>21.94</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>002998</t>
+          <t>001333</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>783</v>
+        <v>4666</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>3.27</v>
+        <v>15.87</v>
       </c>
       <c r="F24" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="G24" t="n">
-        <v>7.799</v>
+        <v>23.252</v>
       </c>
       <c r="H24" t="n">
-        <v>7.83</v>
+        <v>23.33</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>002817</t>
+          <t>001336</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>769</v>
+        <v>1294</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
@@ -1910,64 +1910,64 @@
         <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>22.49</v>
+        <v>43.26</v>
       </c>
       <c r="F25" t="n">
-        <v>2.99</v>
+        <v>3.44</v>
       </c>
       <c r="G25" t="n">
-        <v>7.467</v>
+        <v>12.509</v>
       </c>
       <c r="H25" t="n">
-        <v>7.69</v>
+        <v>12.94</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>605001</t>
+          <t>001366</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>752</v>
+        <v>-7.94</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>105.8823529411765</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>-7.94</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01</v>
+        <v>0.3155882352941176</v>
       </c>
       <c r="G26" t="n">
-        <v>7.519</v>
+        <v>14.152</v>
       </c>
       <c r="H26" t="n">
-        <v>7.52</v>
+        <v>11.22091176470588</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>001387</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>730</v>
+        <v>523</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
@@ -1976,163 +1976,163 @@
         <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>-2.49</v>
+        <v>-4.34</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.37</v>
+        <v>-0.86</v>
       </c>
       <c r="G27" t="n">
-        <v>7.327</v>
+        <v>5.275</v>
       </c>
       <c r="H27" t="n">
-        <v>7.3</v>
+        <v>5.23</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>600080</t>
+          <t>002360</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>合富中国</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>685</v>
+        <v>513</v>
       </c>
       <c r="C28" t="n">
         <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.66</v>
+        <v>11.66</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.27</v>
+        <v>2.29</v>
       </c>
       <c r="G28" t="n">
-        <v>6.869</v>
+        <v>5.015</v>
       </c>
       <c r="H28" t="n">
-        <v>6.85</v>
+        <v>5.13</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>603122</t>
+          <t>002494</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>679</v>
+        <v>936</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E29" t="n">
-        <v>25.54</v>
+        <v>11.06</v>
       </c>
       <c r="F29" t="n">
-        <v>3.88</v>
+        <v>1.17</v>
       </c>
       <c r="G29" t="n">
-        <v>6.537</v>
+        <v>4.626</v>
       </c>
       <c r="H29" t="n">
-        <v>6.79</v>
+        <v>4.68</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>600493</t>
+          <t>002687</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>德龙汇能</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="C30" t="n">
         <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.45</v>
+        <v>0.5</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4</v>
+        <v>0.04</v>
       </c>
       <c r="G30" t="n">
-        <v>6.676</v>
+        <v>7.517</v>
       </c>
       <c r="H30" t="n">
-        <v>6.65</v>
+        <v>7.52</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>002790</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653</v>
+        <v>783</v>
       </c>
       <c r="C31" t="n">
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-18.45</v>
+        <v>3.47</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.78</v>
+        <v>0.42</v>
       </c>
       <c r="G31" t="n">
-        <v>6.717</v>
+        <v>7.797</v>
       </c>
       <c r="H31" t="n">
-        <v>6.53</v>
+        <v>7.83</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>002817</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>重庆燃气</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>581</v>
+        <v>957</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
@@ -2141,64 +2141,64 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>0.61</v>
+        <v>10.36</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="G32" t="n">
-        <v>5.806</v>
+        <v>9.468</v>
       </c>
       <c r="H32" t="n">
-        <v>5.81</v>
+        <v>9.57</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>600917</t>
+          <t>002836</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>美芝股份</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-4.34</v>
+        <v>1070</v>
       </c>
       <c r="C33" t="n">
         <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>85.36585365853658</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>-4.34</v>
+        <v>-2.72</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4846341463414633</v>
+        <v>-0.27</v>
       </c>
       <c r="G33" t="n">
-        <v>5.275</v>
+        <v>10.729</v>
       </c>
       <c r="H33" t="n">
-        <v>12.11124390243902</v>
+        <v>10.7</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>002856</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>弘宇股份</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513</v>
+        <v>1515</v>
       </c>
       <c r="C34" t="n">
         <v>100</v>
@@ -2207,31 +2207,31 @@
         <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>11.66</v>
+        <v>50.99</v>
       </c>
       <c r="F34" t="n">
-        <v>2.29</v>
+        <v>3.47</v>
       </c>
       <c r="G34" t="n">
-        <v>5.015</v>
+        <v>14.642</v>
       </c>
       <c r="H34" t="n">
-        <v>5.13</v>
+        <v>15.15</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>002494</t>
+          <t>002890</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>496</v>
+        <v>363</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
@@ -2240,31 +2240,31 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.33</v>
+        <v>1.76</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.11</v>
+        <v>0.43</v>
       </c>
       <c r="G35" t="n">
-        <v>4.965</v>
+        <v>3.614</v>
       </c>
       <c r="H35" t="n">
-        <v>4.96</v>
+        <v>3.63</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>600925</t>
+          <t>002969</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>优彩资源</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>363</v>
+        <v>824</v>
       </c>
       <c r="C36" t="n">
         <v>100</v>
@@ -2273,251 +2273,20 @@
         <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>1.76</v>
+        <v>16.45</v>
       </c>
       <c r="F36" t="n">
-        <v>0.43</v>
+        <v>2.01</v>
       </c>
       <c r="G36" t="n">
-        <v>3.614</v>
+        <v>8.077</v>
       </c>
       <c r="H36" t="n">
-        <v>3.63</v>
+        <v>8.24</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>002969</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G37" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="H37" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>600847</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>彩蝶实业</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G38" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="H38" t="n">
-        <v>17.79</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>603073</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>烟台亚通精工机械</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="G39" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="H39" t="n">
-        <v>23.93</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>未知代码(烟台亚通精工机械)</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>123.97</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G40" t="n">
-        <v>20.575</v>
-      </c>
-      <c r="H40" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>001231</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="H41" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>002381</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>永东股份</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F42" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="G42" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>002753</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>269.33</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="G43" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="H43" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>002830</t>
+          <t>002998</t>
         </is>
       </c>
     </row>
